--- a/Time-Card/OSC/OCXO Daughtercard/BOM/NoOscillator_bom.xlsx
+++ b/Time-Card/OSC/OCXO Daughtercard/BOM/NoOscillator_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19591B9-BA6C-4866-A662-FC777D89A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E33B52D-A254-4E1A-9644-CB4778C5B559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A1466F9-71DB-41B2-85AB-254F2C8ABDB2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="220">
   <si>
     <t>Designator</t>
   </si>
@@ -687,16 +687,36 @@
   </si>
   <si>
     <t>R17, R18, R19, R24, R25, R26, R30, R32</t>
+  </si>
+  <si>
+    <t>Alternate 1</t>
+  </si>
+  <si>
+    <t>Alternate 2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1405-1/318164</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1425-1/318192?s=N4IgTCBcDaIIwBYwFYC0cQF0C%2BQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,17 +760,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1063,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FEF9C-BBBC-407C-A295-D5AA175DBDCF}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,9 +1113,11 @@
     <col min="9" max="9" width="17.36328125" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="34.54296875" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="22.36328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1154,14 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1193,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1186,7 +1225,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1257,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1289,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1321,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1314,7 +1353,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1346,7 +1385,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1446,7 +1485,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -1508,7 +1547,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1540,7 +1579,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -1572,7 +1611,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -1603,6 +1642,12 @@
         <v>10</v>
       </c>
       <c r="L16" s="1"/>
+      <c r="M16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -2334,7 +2379,7 @@
         <v>195</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="L38" s="1"/>
     </row>
@@ -2455,7 +2500,11 @@
       <c r="L42" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M16" r:id="rId1" xr:uid="{1B557110-14DB-4DFD-AE4B-FA6F53AF7F91}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{FEF45C30-04FE-4425-AC7A-0C43B7052193}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>